--- a/doctor.xlsx
+++ b/doctor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\Doctor-Dai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FFEA17-CF19-4EA1-B610-EB9BD6491C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B59E2A-B8D7-4C4A-9BFF-1A83EB483333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{9B549992-856B-4ABA-8302-C534D2C94572}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{9B549992-856B-4ABA-8302-C534D2C94572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1C1C403" hidden="1">Sheet1!$C$1:$C$403</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1C1C4031" hidden="1">Sheet1!$C$1:$C$403</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -35,6 +35,15 @@
           <x15:modelTable id="Range" name="Range" connection="WorksheetConnection_Sheet1!$C$1:$C$403"/>
         </x15:modelTables>
       </x15:dataModel>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -55,7 +64,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1C1C403"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Sheet1C1C4031"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -64,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="971">
   <si>
     <t>Name_of_Doctor</t>
   </si>
@@ -1687,13 +1696,1303 @@
   </si>
   <si>
     <t>Biratnagar</t>
+  </si>
+  <si>
+    <t>Phone no.</t>
+  </si>
+  <si>
+    <t>977-1-4230710</t>
+  </si>
+  <si>
+    <t>977-1-4230711</t>
+  </si>
+  <si>
+    <t>977-1-4230712</t>
+  </si>
+  <si>
+    <t>977-1-4230713</t>
+  </si>
+  <si>
+    <t>977-1-4230714</t>
+  </si>
+  <si>
+    <t>977-1-4230715</t>
+  </si>
+  <si>
+    <t>977-1-4230716</t>
+  </si>
+  <si>
+    <t>977-1-4230717</t>
+  </si>
+  <si>
+    <t>977-1-4230718</t>
+  </si>
+  <si>
+    <t>977-1-4230719</t>
+  </si>
+  <si>
+    <t>977-1-4230720</t>
+  </si>
+  <si>
+    <t>977-1-4230721</t>
+  </si>
+  <si>
+    <t>977-1-4230722</t>
+  </si>
+  <si>
+    <t>977-1-4230723</t>
+  </si>
+  <si>
+    <t>977-1-4230724</t>
+  </si>
+  <si>
+    <t>977-1-4230725</t>
+  </si>
+  <si>
+    <t>977-1-4230726</t>
+  </si>
+  <si>
+    <t>977-1-4230727</t>
+  </si>
+  <si>
+    <t>977-1-4230728</t>
+  </si>
+  <si>
+    <t>977-1-4230729</t>
+  </si>
+  <si>
+    <t>977-1-4230730</t>
+  </si>
+  <si>
+    <t>977-1-4230731</t>
+  </si>
+  <si>
+    <t>977-1-4230732</t>
+  </si>
+  <si>
+    <t>977-1-4230733</t>
+  </si>
+  <si>
+    <t>977-1-4230734</t>
+  </si>
+  <si>
+    <t>977-1-4230735</t>
+  </si>
+  <si>
+    <t>977-1-4230736</t>
+  </si>
+  <si>
+    <t>977-1-4230737</t>
+  </si>
+  <si>
+    <t>977-1-4230738</t>
+  </si>
+  <si>
+    <t>977-1-4230739</t>
+  </si>
+  <si>
+    <t>977-1-4230740</t>
+  </si>
+  <si>
+    <t>977-1-4230741</t>
+  </si>
+  <si>
+    <t>977-1-4230742</t>
+  </si>
+  <si>
+    <t>977-1-4230743</t>
+  </si>
+  <si>
+    <t>977-1-4230744</t>
+  </si>
+  <si>
+    <t>977-1-4230745</t>
+  </si>
+  <si>
+    <t>977-1-4230746</t>
+  </si>
+  <si>
+    <t>977-1-4230747</t>
+  </si>
+  <si>
+    <t>977-1-4230748</t>
+  </si>
+  <si>
+    <t>977-1-4230749</t>
+  </si>
+  <si>
+    <t>977-1-4230750</t>
+  </si>
+  <si>
+    <t>977-1-4230751</t>
+  </si>
+  <si>
+    <t>977-1-4230752</t>
+  </si>
+  <si>
+    <t>977-1-4230753</t>
+  </si>
+  <si>
+    <t>977-1-4230754</t>
+  </si>
+  <si>
+    <t>977-1-4230755</t>
+  </si>
+  <si>
+    <t>977-1-4230756</t>
+  </si>
+  <si>
+    <t>977-1-4230757</t>
+  </si>
+  <si>
+    <t>977-1-4230758</t>
+  </si>
+  <si>
+    <t>977-1-4230759</t>
+  </si>
+  <si>
+    <t>977-1-4230760</t>
+  </si>
+  <si>
+    <t>977-1-4230761</t>
+  </si>
+  <si>
+    <t>977-1-4230762</t>
+  </si>
+  <si>
+    <t>977-1-4230763</t>
+  </si>
+  <si>
+    <t>977-1-4230764</t>
+  </si>
+  <si>
+    <t>977-1-4230765</t>
+  </si>
+  <si>
+    <t>977-1-4230766</t>
+  </si>
+  <si>
+    <t>977-1-4230767</t>
+  </si>
+  <si>
+    <t>977-1-4230768</t>
+  </si>
+  <si>
+    <t>977-1-4230769</t>
+  </si>
+  <si>
+    <t>977-1-4230770</t>
+  </si>
+  <si>
+    <t>977-1-4230771</t>
+  </si>
+  <si>
+    <t>977-1-4230772</t>
+  </si>
+  <si>
+    <t>977-1-4230773</t>
+  </si>
+  <si>
+    <t>977-1-4230774</t>
+  </si>
+  <si>
+    <t>977-1-4230775</t>
+  </si>
+  <si>
+    <t>977-1-4230776</t>
+  </si>
+  <si>
+    <t>977-1-4230777</t>
+  </si>
+  <si>
+    <t>977-1-5445112</t>
+  </si>
+  <si>
+    <t>977-1-5445113</t>
+  </si>
+  <si>
+    <t>977-1-5445114</t>
+  </si>
+  <si>
+    <t>977-1-5445115</t>
+  </si>
+  <si>
+    <t>977-1-5445116</t>
+  </si>
+  <si>
+    <t>977-1-5445117</t>
+  </si>
+  <si>
+    <t>977-1-5445118</t>
+  </si>
+  <si>
+    <t>977-1-5445119</t>
+  </si>
+  <si>
+    <t>977-1-5445120</t>
+  </si>
+  <si>
+    <t>977-1-5445121</t>
+  </si>
+  <si>
+    <t>977-1-5445122</t>
+  </si>
+  <si>
+    <t>977-1-5445123</t>
+  </si>
+  <si>
+    <t>977-1-5445124</t>
+  </si>
+  <si>
+    <t>977-1-5445125</t>
+  </si>
+  <si>
+    <t>977-1-5445126</t>
+  </si>
+  <si>
+    <t>977-1-5445127</t>
+  </si>
+  <si>
+    <t>977-1-5445128</t>
+  </si>
+  <si>
+    <t>977-1-5445129</t>
+  </si>
+  <si>
+    <t>977-1-5445130</t>
+  </si>
+  <si>
+    <t>977-1-5445131</t>
+  </si>
+  <si>
+    <t>977-1-5445132</t>
+  </si>
+  <si>
+    <t>977-1-5445133</t>
+  </si>
+  <si>
+    <t>977-1-5445134</t>
+  </si>
+  <si>
+    <t>977-1-5445135</t>
+  </si>
+  <si>
+    <t>977-1-5445136</t>
+  </si>
+  <si>
+    <t>977-1-5445137</t>
+  </si>
+  <si>
+    <t>977-1-5445138</t>
+  </si>
+  <si>
+    <t>977-1-5445139</t>
+  </si>
+  <si>
+    <t>977-1-5445140</t>
+  </si>
+  <si>
+    <t>977-1-5445141</t>
+  </si>
+  <si>
+    <t>977-1-5445142</t>
+  </si>
+  <si>
+    <t>977-1-5445143</t>
+  </si>
+  <si>
+    <t>977-1-5445144</t>
+  </si>
+  <si>
+    <t>977-1-5445145</t>
+  </si>
+  <si>
+    <t>977-1-5445146</t>
+  </si>
+  <si>
+    <t>977-1-5445147</t>
+  </si>
+  <si>
+    <t>977-1-5445148</t>
+  </si>
+  <si>
+    <t>977-1-5445149</t>
+  </si>
+  <si>
+    <t>977-1-5445150</t>
+  </si>
+  <si>
+    <t>977-1-5445151</t>
+  </si>
+  <si>
+    <t>977-1-5445152</t>
+  </si>
+  <si>
+    <t>977-1-5445153</t>
+  </si>
+  <si>
+    <t>977-1-5445154</t>
+  </si>
+  <si>
+    <t>977-1-5445155</t>
+  </si>
+  <si>
+    <t>977-1-5445156</t>
+  </si>
+  <si>
+    <t>977-1-5445157</t>
+  </si>
+  <si>
+    <t>977-1-5445158</t>
+  </si>
+  <si>
+    <t>977-1-5445159</t>
+  </si>
+  <si>
+    <t>977-1-5445160</t>
+  </si>
+  <si>
+    <t>977-1-5445161</t>
+  </si>
+  <si>
+    <t>977-1-5445162</t>
+  </si>
+  <si>
+    <t>977-1-5445163</t>
+  </si>
+  <si>
+    <t>977-1-5445164</t>
+  </si>
+  <si>
+    <t>977-1-5445165</t>
+  </si>
+  <si>
+    <t>977-1-5445166</t>
+  </si>
+  <si>
+    <t>977-1-5445167</t>
+  </si>
+  <si>
+    <t>977-1-5445168</t>
+  </si>
+  <si>
+    <t>977-1-5445169</t>
+  </si>
+  <si>
+    <t>977-1-5445170</t>
+  </si>
+  <si>
+    <t>977-1-5445171</t>
+  </si>
+  <si>
+    <t>977-1-5445172</t>
+  </si>
+  <si>
+    <t>977-1-5445173</t>
+  </si>
+  <si>
+    <t>977-1-5445174</t>
+  </si>
+  <si>
+    <t>977-1-5445175</t>
+  </si>
+  <si>
+    <t>977-1-5445176</t>
+  </si>
+  <si>
+    <t>977-1-5445177</t>
+  </si>
+  <si>
+    <t>977-1-5445178</t>
+  </si>
+  <si>
+    <t>977-1-5445179</t>
+  </si>
+  <si>
+    <t>977-1-5445180</t>
+  </si>
+  <si>
+    <t>977-1-5445181</t>
+  </si>
+  <si>
+    <t>977-1-5445182</t>
+  </si>
+  <si>
+    <t>977-1-5445183</t>
+  </si>
+  <si>
+    <t>977-1-5445184</t>
+  </si>
+  <si>
+    <t>977-1-5445185</t>
+  </si>
+  <si>
+    <t>977-1-5445186</t>
+  </si>
+  <si>
+    <t>977-1-5445187</t>
+  </si>
+  <si>
+    <t>977-1-5445188</t>
+  </si>
+  <si>
+    <t>977-1-5445189</t>
+  </si>
+  <si>
+    <t>977-1-5445190</t>
+  </si>
+  <si>
+    <t>977-1-5445191</t>
+  </si>
+  <si>
+    <t>977-1-5445192</t>
+  </si>
+  <si>
+    <t>977-1-5445193</t>
+  </si>
+  <si>
+    <t>977-1-5445194</t>
+  </si>
+  <si>
+    <t>977-1-5445195</t>
+  </si>
+  <si>
+    <t>977-1-5445196</t>
+  </si>
+  <si>
+    <t>977-1-5445197</t>
+  </si>
+  <si>
+    <t>977-1-5445198</t>
+  </si>
+  <si>
+    <t>977-1-5445199</t>
+  </si>
+  <si>
+    <t>977-1-5445200</t>
+  </si>
+  <si>
+    <t>977-1-5445201</t>
+  </si>
+  <si>
+    <t>977-1-5445202</t>
+  </si>
+  <si>
+    <t>977-1-5445203</t>
+  </si>
+  <si>
+    <t>977-1-5445204</t>
+  </si>
+  <si>
+    <t>977-1-5445205</t>
+  </si>
+  <si>
+    <t>977-1-5445206</t>
+  </si>
+  <si>
+    <t>977-1-5445207</t>
+  </si>
+  <si>
+    <t>977-1-5445208</t>
+  </si>
+  <si>
+    <t>977-1-5445209</t>
+  </si>
+  <si>
+    <t>977-1-5445210</t>
+  </si>
+  <si>
+    <t>977-1-5445211</t>
+  </si>
+  <si>
+    <t>977-1-5445212</t>
+  </si>
+  <si>
+    <t>977-1-5445213</t>
+  </si>
+  <si>
+    <t>977-1-5445214</t>
+  </si>
+  <si>
+    <t>977-1-5445215</t>
+  </si>
+  <si>
+    <t>977-1-5445216</t>
+  </si>
+  <si>
+    <t>977-1-5445217</t>
+  </si>
+  <si>
+    <t>977-1-5445218</t>
+  </si>
+  <si>
+    <t>977-1-5445219</t>
+  </si>
+  <si>
+    <t>977-1-5445220</t>
+  </si>
+  <si>
+    <t>977-1-5445221</t>
+  </si>
+  <si>
+    <t>977-1-5445222</t>
+  </si>
+  <si>
+    <t>977-1-5445223</t>
+  </si>
+  <si>
+    <t>977-1-5445224</t>
+  </si>
+  <si>
+    <t>977-1-5445225</t>
+  </si>
+  <si>
+    <t>977-1-5445226</t>
+  </si>
+  <si>
+    <t>977-1-5445227</t>
+  </si>
+  <si>
+    <t>977-1-5445228</t>
+  </si>
+  <si>
+    <t>977-1-5445229</t>
+  </si>
+  <si>
+    <t>977-1-5445230</t>
+  </si>
+  <si>
+    <t>977-1-5445231</t>
+  </si>
+  <si>
+    <t>977-1-5445232</t>
+  </si>
+  <si>
+    <t>977-1-5445233</t>
+  </si>
+  <si>
+    <t>977-1-5445234</t>
+  </si>
+  <si>
+    <t>977-1-5445235</t>
+  </si>
+  <si>
+    <t>977-1-5445236</t>
+  </si>
+  <si>
+    <t>977-1-5445237</t>
+  </si>
+  <si>
+    <t>977-1-5445238</t>
+  </si>
+  <si>
+    <t>977-1-4371322</t>
+  </si>
+  <si>
+    <t>977-1-4371323</t>
+  </si>
+  <si>
+    <t>977-1-4371324</t>
+  </si>
+  <si>
+    <t>977-1-4371325</t>
+  </si>
+  <si>
+    <t>977-1-4371326</t>
+  </si>
+  <si>
+    <t>977-1-4371327</t>
+  </si>
+  <si>
+    <t>977-1-4371328</t>
+  </si>
+  <si>
+    <t>977-1-4371329</t>
+  </si>
+  <si>
+    <t>977-1-4371330</t>
+  </si>
+  <si>
+    <t>977-1-4371331</t>
+  </si>
+  <si>
+    <t>977-1-4371332</t>
+  </si>
+  <si>
+    <t>977-1-4371333</t>
+  </si>
+  <si>
+    <t>977-1-4371334</t>
+  </si>
+  <si>
+    <t>977-1-4371335</t>
+  </si>
+  <si>
+    <t>977-1-4371336</t>
+  </si>
+  <si>
+    <t>977-1-4371337</t>
+  </si>
+  <si>
+    <t>977-1-4371338</t>
+  </si>
+  <si>
+    <t>977-1-4371339</t>
+  </si>
+  <si>
+    <t>977-1-4371340</t>
+  </si>
+  <si>
+    <t>977-1-4371341</t>
+  </si>
+  <si>
+    <t>977-1-4371342</t>
+  </si>
+  <si>
+    <t>977-1-4371343</t>
+  </si>
+  <si>
+    <t>977-1-4371344</t>
+  </si>
+  <si>
+    <t>977-1-4371345</t>
+  </si>
+  <si>
+    <t>977-1-4371346</t>
+  </si>
+  <si>
+    <t>977-1-4371347</t>
+  </si>
+  <si>
+    <t>977-1-4371348</t>
+  </si>
+  <si>
+    <t>977-1-4371349</t>
+  </si>
+  <si>
+    <t>977-1-4371350</t>
+  </si>
+  <si>
+    <t>977-1-4371351</t>
+  </si>
+  <si>
+    <t>977-1-4371352</t>
+  </si>
+  <si>
+    <t>977-1-4371353</t>
+  </si>
+  <si>
+    <t>977-1-4371354</t>
+  </si>
+  <si>
+    <t>977-1-4371355</t>
+  </si>
+  <si>
+    <t>977-1-4371356</t>
+  </si>
+  <si>
+    <t>977-1-4371357</t>
+  </si>
+  <si>
+    <t>977-1-4371358</t>
+  </si>
+  <si>
+    <t>977-1-4371359</t>
+  </si>
+  <si>
+    <t>977-1-4371360</t>
+  </si>
+  <si>
+    <t>977-1-4371361</t>
+  </si>
+  <si>
+    <t>977-1-4371362</t>
+  </si>
+  <si>
+    <t>977-1-4371363</t>
+  </si>
+  <si>
+    <t>977-1-4371364</t>
+  </si>
+  <si>
+    <t>977-1-4371365</t>
+  </si>
+  <si>
+    <t>977-1-4371366</t>
+  </si>
+  <si>
+    <t>977-1-4512505</t>
+  </si>
+  <si>
+    <t>977-1-4512506</t>
+  </si>
+  <si>
+    <t>977-1-4512507</t>
+  </si>
+  <si>
+    <t>977-1-4512508</t>
+  </si>
+  <si>
+    <t>977-1-4512509</t>
+  </si>
+  <si>
+    <t>977-1-4512510</t>
+  </si>
+  <si>
+    <t>977-1-4512511</t>
+  </si>
+  <si>
+    <t>977-1-4512512</t>
+  </si>
+  <si>
+    <t>977-1-4512513</t>
+  </si>
+  <si>
+    <t>977-1-4512514</t>
+  </si>
+  <si>
+    <t>977-1-4512515</t>
+  </si>
+  <si>
+    <t>977-1-4512516</t>
+  </si>
+  <si>
+    <t>977-1-4512517</t>
+  </si>
+  <si>
+    <t>977-1-4512518</t>
+  </si>
+  <si>
+    <t>977-1-4512519</t>
+  </si>
+  <si>
+    <t>977-1-4512520</t>
+  </si>
+  <si>
+    <t>977-1-4512521</t>
+  </si>
+  <si>
+    <t>977-1-4512522</t>
+  </si>
+  <si>
+    <t>977-1-4512523</t>
+  </si>
+  <si>
+    <t>977-1-4512524</t>
+  </si>
+  <si>
+    <t>977-1-4512525</t>
+  </si>
+  <si>
+    <t>977-1-4512526</t>
+  </si>
+  <si>
+    <t>977-1-4512527</t>
+  </si>
+  <si>
+    <t>977-1-4512528</t>
+  </si>
+  <si>
+    <t>977-1-4512529</t>
+  </si>
+  <si>
+    <t>977-1-4512530</t>
+  </si>
+  <si>
+    <t>977-1-4512531</t>
+  </si>
+  <si>
+    <t>977-1-4512532</t>
+  </si>
+  <si>
+    <t>977-1-4512533</t>
+  </si>
+  <si>
+    <t>977-1-4512534</t>
+  </si>
+  <si>
+    <t>977-1-4512535</t>
+  </si>
+  <si>
+    <t>977-1-4512536</t>
+  </si>
+  <si>
+    <t>977-1-4512537</t>
+  </si>
+  <si>
+    <t>977-1-4512538</t>
+  </si>
+  <si>
+    <t>977-1-4512539</t>
+  </si>
+  <si>
+    <t>977-1-4411550</t>
+  </si>
+  <si>
+    <t>977-1-4411551</t>
+  </si>
+  <si>
+    <t>977-1-4411552</t>
+  </si>
+  <si>
+    <t>977-1-4411553</t>
+  </si>
+  <si>
+    <t>977-1-4411554</t>
+  </si>
+  <si>
+    <t>977-1-4411555</t>
+  </si>
+  <si>
+    <t>977-1-4411556</t>
+  </si>
+  <si>
+    <t>977-1-4411557</t>
+  </si>
+  <si>
+    <t>977-1-4411558</t>
+  </si>
+  <si>
+    <t>977-1-4411559</t>
+  </si>
+  <si>
+    <t>977-1-4411560</t>
+  </si>
+  <si>
+    <t>977-1-4411561</t>
+  </si>
+  <si>
+    <t>977-1-4411562</t>
+  </si>
+  <si>
+    <t>977-1-4411563</t>
+  </si>
+  <si>
+    <t>977-1-4411564</t>
+  </si>
+  <si>
+    <t>977-1-4411565</t>
+  </si>
+  <si>
+    <t>977-1-5353276</t>
+  </si>
+  <si>
+    <t>977-1-5353277</t>
+  </si>
+  <si>
+    <t>977-1-5353278</t>
+  </si>
+  <si>
+    <t>977-1-5353279</t>
+  </si>
+  <si>
+    <t>977-1-5353280</t>
+  </si>
+  <si>
+    <t>977-1-5353281</t>
+  </si>
+  <si>
+    <t>977-1-5353282</t>
+  </si>
+  <si>
+    <t>977-1-5353283</t>
+  </si>
+  <si>
+    <t>977-1-5353284</t>
+  </si>
+  <si>
+    <t>977-1-5353285</t>
+  </si>
+  <si>
+    <t>977-1-5353286</t>
+  </si>
+  <si>
+    <t>977-1-5353287</t>
+  </si>
+  <si>
+    <t>977-1-5353288</t>
+  </si>
+  <si>
+    <t>977-1-5353289</t>
+  </si>
+  <si>
+    <t>977-1-5353290</t>
+  </si>
+  <si>
+    <t>977-1-5353291</t>
+  </si>
+  <si>
+    <t>977-1-5353292</t>
+  </si>
+  <si>
+    <t>977-1-5353293</t>
+  </si>
+  <si>
+    <t>977-1-5353294</t>
+  </si>
+  <si>
+    <t>977-1-5353295</t>
+  </si>
+  <si>
+    <t>977-1-5353296</t>
+  </si>
+  <si>
+    <t>977-1-5353297</t>
+  </si>
+  <si>
+    <t>977-1-5353298</t>
+  </si>
+  <si>
+    <t>977-1-5353299</t>
+  </si>
+  <si>
+    <t>977-1-5353300</t>
+  </si>
+  <si>
+    <t>977-1-5353301</t>
+  </si>
+  <si>
+    <t>977-1-5353302</t>
+  </si>
+  <si>
+    <t>977-1-5353303</t>
+  </si>
+  <si>
+    <t>977-1-5353304</t>
+  </si>
+  <si>
+    <t>977-1-5353305</t>
+  </si>
+  <si>
+    <t>977-1-5353306</t>
+  </si>
+  <si>
+    <t>977-1-5353307</t>
+  </si>
+  <si>
+    <t>977-1-5353308</t>
+  </si>
+  <si>
+    <t>977-1-5353309</t>
+  </si>
+  <si>
+    <t>977-1-5353310</t>
+  </si>
+  <si>
+    <t>977-1-5353311</t>
+  </si>
+  <si>
+    <t>977-1-5353312</t>
+  </si>
+  <si>
+    <t>977-1-5970032</t>
+  </si>
+  <si>
+    <t>977-1-5970033</t>
+  </si>
+  <si>
+    <t>977-1-5970034</t>
+  </si>
+  <si>
+    <t>977-1-5970035</t>
+  </si>
+  <si>
+    <t>977-1-5970036</t>
+  </si>
+  <si>
+    <t>977-1-5970037</t>
+  </si>
+  <si>
+    <t>977-1-5970038</t>
+  </si>
+  <si>
+    <t>977-1-5970039</t>
+  </si>
+  <si>
+    <t>977-1-5970040</t>
+  </si>
+  <si>
+    <t>977-1-5970041</t>
+  </si>
+  <si>
+    <t>977-1-5970042</t>
+  </si>
+  <si>
+    <t>977-1-5970043</t>
+  </si>
+  <si>
+    <t>977-1-5970044</t>
+  </si>
+  <si>
+    <t>977-1-5970045</t>
+  </si>
+  <si>
+    <t>977-1-5970046</t>
+  </si>
+  <si>
+    <t>977-1-5970047</t>
+  </si>
+  <si>
+    <t>977-1-5970048</t>
+  </si>
+  <si>
+    <t>977-1-5970049</t>
+  </si>
+  <si>
+    <t>977-1-5970050</t>
+  </si>
+  <si>
+    <t>977-1-5970051</t>
+  </si>
+  <si>
+    <t>977-1-5970052</t>
+  </si>
+  <si>
+    <t>977-1-5970053</t>
+  </si>
+  <si>
+    <t>977-1-5970054</t>
+  </si>
+  <si>
+    <t>977-1-5970055</t>
+  </si>
+  <si>
+    <t>977-1-5970056</t>
+  </si>
+  <si>
+    <t>977-1-5970057</t>
+  </si>
+  <si>
+    <t>977-1-5970058</t>
+  </si>
+  <si>
+    <t>977-1-5970059</t>
+  </si>
+  <si>
+    <t>977-1-5970060</t>
+  </si>
+  <si>
+    <t>977-1-5970061</t>
+  </si>
+  <si>
+    <t>977-1-5970062</t>
+  </si>
+  <si>
+    <t>977-1-5970063</t>
+  </si>
+  <si>
+    <t>977-1-5970064</t>
+  </si>
+  <si>
+    <t>977-1-5970065</t>
+  </si>
+  <si>
+    <t>977-1-5970066</t>
+  </si>
+  <si>
+    <t>977-1-5970067</t>
+  </si>
+  <si>
+    <t>977-1-5970068</t>
+  </si>
+  <si>
+    <t>977-1-5970069</t>
+  </si>
+  <si>
+    <t>977-1-5970070</t>
+  </si>
+  <si>
+    <t>977-1-5970071</t>
+  </si>
+  <si>
+    <t>977-1-5970072</t>
+  </si>
+  <si>
+    <t>977-1-5970073</t>
+  </si>
+  <si>
+    <t>977-1-5970074</t>
+  </si>
+  <si>
+    <t>977-1-5970075</t>
+  </si>
+  <si>
+    <t>977-1-5970076</t>
+  </si>
+  <si>
+    <t>977-1-5970077</t>
+  </si>
+  <si>
+    <t>977-1-5970078</t>
+  </si>
+  <si>
+    <t>977-1-5970079</t>
+  </si>
+  <si>
+    <t>977-1-5970080</t>
+  </si>
+  <si>
+    <t>977-1-5970081</t>
+  </si>
+  <si>
+    <t>977-1-5970082</t>
+  </si>
+  <si>
+    <t>977-1-5970083</t>
+  </si>
+  <si>
+    <t>977-1-5970084</t>
+  </si>
+  <si>
+    <t>977-1-5970085</t>
+  </si>
+  <si>
+    <t>977-1-5970086</t>
+  </si>
+  <si>
+    <t>977-1-5970087</t>
+  </si>
+  <si>
+    <t>977-1-5970088</t>
+  </si>
+  <si>
+    <t>977-1-5970089</t>
+  </si>
+  <si>
+    <t>977-1-5970090</t>
+  </si>
+  <si>
+    <t>977-1-5970091</t>
+  </si>
+  <si>
+    <t>977-1-5970092</t>
+  </si>
+  <si>
+    <t>977-1-5970093</t>
+  </si>
+  <si>
+    <t>977-1-5970094</t>
+  </si>
+  <si>
+    <t>977-1-5970095</t>
+  </si>
+  <si>
+    <t>977-1-5970096</t>
+  </si>
+  <si>
+    <t>977-1-5970097</t>
+  </si>
+  <si>
+    <t>977-1-5970098</t>
+  </si>
+  <si>
+    <t>977-1-5970099</t>
+  </si>
+  <si>
+    <t>977-1-5970100</t>
+  </si>
+  <si>
+    <t>977-1-5970101</t>
+  </si>
+  <si>
+    <t>977-1-5970102</t>
+  </si>
+  <si>
+    <t>977-1-5970103</t>
+  </si>
+  <si>
+    <t>977-1-5970104</t>
+  </si>
+  <si>
+    <t>977-1-5970105</t>
+  </si>
+  <si>
+    <t>977-21-516626</t>
+  </si>
+  <si>
+    <t>977-21-516627</t>
+  </si>
+  <si>
+    <t>977-21-516628</t>
+  </si>
+  <si>
+    <t>977-21-516629</t>
+  </si>
+  <si>
+    <t>977-21-516630</t>
+  </si>
+  <si>
+    <t>977-21-516631</t>
+  </si>
+  <si>
+    <t>977-21-516632</t>
+  </si>
+  <si>
+    <t>977-21-516633</t>
+  </si>
+  <si>
+    <t>977-21-516634</t>
+  </si>
+  <si>
+    <t>977-21-516635</t>
+  </si>
+  <si>
+    <t>977-21-516636</t>
+  </si>
+  <si>
+    <t>977-21-516637</t>
+  </si>
+  <si>
+    <t>977-21-516638</t>
+  </si>
+  <si>
+    <t>977-21-516639</t>
+  </si>
+  <si>
+    <t>977-21-516640</t>
+  </si>
+  <si>
+    <t>977-21-516641</t>
+  </si>
+  <si>
+    <t>977-21-516642</t>
+  </si>
+  <si>
+    <t>977-21-516643</t>
+  </si>
+  <si>
+    <t>977-21-516644</t>
+  </si>
+  <si>
+    <t>977-21-516645</t>
+  </si>
+  <si>
+    <t>977-21-516646</t>
+  </si>
+  <si>
+    <t>977-21-516647</t>
+  </si>
+  <si>
+    <t>977-21-516648</t>
+  </si>
+  <si>
+    <t>977-21-516649</t>
+  </si>
+  <si>
+    <t>977-21-516650</t>
+  </si>
+  <si>
+    <t>977-21-516651</t>
+  </si>
+  <si>
+    <t>977-21-516652</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1730,6 +3029,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4683,21 +5988,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46EB772-FB89-49AB-8539-94DC2A2C87DD}">
-  <dimension ref="A1:F430"/>
+  <dimension ref="A1:H430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="B437" sqref="B437"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="29.77734375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4716,8 +6022,12 @@
       <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+      <c r="G1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4736,8 +6046,11 @@
       <c r="F2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
+      <c r="G2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4756,8 +6069,11 @@
       <c r="F3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="G3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4776,8 +6092,11 @@
       <c r="F4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="G4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4796,8 +6115,11 @@
       <c r="F5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="G5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4816,8 +6138,11 @@
       <c r="F6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="G6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4836,8 +6161,11 @@
       <c r="F7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
+      <c r="G7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4856,8 +6184,11 @@
       <c r="F8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
+      <c r="G8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4876,8 +6207,11 @@
       <c r="F9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4896,8 +6230,11 @@
       <c r="F10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4916,8 +6253,11 @@
       <c r="F11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4936,8 +6276,11 @@
       <c r="F12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4956,8 +6299,11 @@
       <c r="F13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4976,8 +6322,11 @@
       <c r="F14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4996,8 +6345,11 @@
       <c r="F15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5016,8 +6368,11 @@
       <c r="F16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5036,8 +6391,11 @@
       <c r="F17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5056,8 +6414,11 @@
       <c r="F18" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5076,8 +6437,11 @@
       <c r="F19" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5096,8 +6460,11 @@
       <c r="F20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5116,8 +6483,11 @@
       <c r="F21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5136,8 +6506,11 @@
       <c r="F22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5156,8 +6529,11 @@
       <c r="F23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5176,8 +6552,11 @@
       <c r="F24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5196,8 +6575,11 @@
       <c r="F25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5216,8 +6598,11 @@
       <c r="F26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5236,8 +6621,11 @@
       <c r="F27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5256,8 +6644,11 @@
       <c r="F28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5276,8 +6667,11 @@
       <c r="F29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5296,8 +6690,11 @@
       <c r="F30" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5316,8 +6713,11 @@
       <c r="F31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5336,8 +6736,11 @@
       <c r="F32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5356,8 +6759,11 @@
       <c r="F33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5376,8 +6782,11 @@
       <c r="F34" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5396,8 +6805,11 @@
       <c r="F35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5416,8 +6828,11 @@
       <c r="F36" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5436,8 +6851,11 @@
       <c r="F37" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5456,8 +6874,11 @@
       <c r="F38" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5476,8 +6897,11 @@
       <c r="F39" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5496,8 +6920,11 @@
       <c r="F40" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5516,8 +6943,11 @@
       <c r="F41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5536,8 +6966,11 @@
       <c r="F42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5556,8 +6989,11 @@
       <c r="F43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5576,8 +7012,11 @@
       <c r="F44" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5596,8 +7035,11 @@
       <c r="F45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5616,8 +7058,11 @@
       <c r="F46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5636,8 +7081,11 @@
       <c r="F47" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5656,8 +7104,11 @@
       <c r="F48" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5676,8 +7127,11 @@
       <c r="F49" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5696,8 +7150,11 @@
       <c r="F50" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5716,8 +7173,11 @@
       <c r="F51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5736,8 +7196,11 @@
       <c r="F52" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5756,8 +7219,11 @@
       <c r="F53" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5776,8 +7242,11 @@
       <c r="F54" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5796,8 +7265,11 @@
       <c r="F55" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5816,8 +7288,11 @@
       <c r="F56" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5836,8 +7311,11 @@
       <c r="F57" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5856,8 +7334,11 @@
       <c r="F58" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5876,8 +7357,11 @@
       <c r="F59" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5896,8 +7380,11 @@
       <c r="F60" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5916,8 +7403,11 @@
       <c r="F61" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5936,8 +7426,11 @@
       <c r="F62" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5956,8 +7449,11 @@
       <c r="F63" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5976,8 +7472,11 @@
       <c r="F64" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5996,8 +7495,11 @@
       <c r="F65" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6016,8 +7518,11 @@
       <c r="F66" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6036,8 +7541,11 @@
       <c r="F67" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6056,8 +7564,11 @@
       <c r="F68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6076,8 +7587,11 @@
       <c r="F69" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6096,8 +7610,11 @@
       <c r="F70" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6116,8 +7633,11 @@
       <c r="F71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6136,8 +7656,11 @@
       <c r="F72" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6156,8 +7679,11 @@
       <c r="F73" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6176,8 +7702,11 @@
       <c r="F74" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6196,8 +7725,11 @@
       <c r="F75" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6216,8 +7748,11 @@
       <c r="F76" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6236,8 +7771,11 @@
       <c r="F77" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6256,8 +7794,11 @@
       <c r="F78" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6276,8 +7817,11 @@
       <c r="F79" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6296,8 +7840,11 @@
       <c r="F80" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6316,8 +7863,11 @@
       <c r="F81" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6336,8 +7886,11 @@
       <c r="F82" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6356,8 +7909,11 @@
       <c r="F83" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6376,8 +7932,11 @@
       <c r="F84" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6396,8 +7955,11 @@
       <c r="F85" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6416,8 +7978,11 @@
       <c r="F86" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6436,8 +8001,11 @@
       <c r="F87" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6456,8 +8024,11 @@
       <c r="F88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6476,8 +8047,11 @@
       <c r="F89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6496,8 +8070,11 @@
       <c r="F90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6516,8 +8093,11 @@
       <c r="F91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6536,8 +8116,11 @@
       <c r="F92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6556,8 +8139,11 @@
       <c r="F93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6576,8 +8162,11 @@
       <c r="F94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6596,8 +8185,11 @@
       <c r="F95" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6616,8 +8208,11 @@
       <c r="F96" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6636,8 +8231,11 @@
       <c r="F97" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6656,8 +8254,11 @@
       <c r="F98" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6676,8 +8277,11 @@
       <c r="F99" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6696,8 +8300,11 @@
       <c r="F100" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6716,8 +8323,11 @@
       <c r="F101" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6736,8 +8346,11 @@
       <c r="F102" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6756,8 +8369,11 @@
       <c r="F103" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6776,8 +8392,11 @@
       <c r="F104" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6796,8 +8415,11 @@
       <c r="F105" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6816,8 +8438,11 @@
       <c r="F106" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6836,8 +8461,11 @@
       <c r="F107" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6856,8 +8484,11 @@
       <c r="F108" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6876,8 +8507,11 @@
       <c r="F109" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6896,8 +8530,11 @@
       <c r="F110" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6916,8 +8553,11 @@
       <c r="F111" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6936,8 +8576,11 @@
       <c r="F112" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6956,8 +8599,11 @@
       <c r="F113" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6976,8 +8622,11 @@
       <c r="F114" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6996,8 +8645,11 @@
       <c r="F115" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7016,8 +8668,11 @@
       <c r="F116" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7036,8 +8691,11 @@
       <c r="F117" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7056,8 +8714,11 @@
       <c r="F118" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7076,8 +8737,11 @@
       <c r="F119" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7096,8 +8760,11 @@
       <c r="F120" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7116,8 +8783,11 @@
       <c r="F121" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7136,8 +8806,11 @@
       <c r="F122" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7156,8 +8829,11 @@
       <c r="F123" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7176,8 +8852,11 @@
       <c r="F124" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7196,8 +8875,11 @@
       <c r="F125" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7216,8 +8898,11 @@
       <c r="F126" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7236,8 +8921,11 @@
       <c r="F127" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7256,8 +8944,11 @@
       <c r="F128" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7276,8 +8967,11 @@
       <c r="F129" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7296,8 +8990,11 @@
       <c r="F130" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7316,8 +9013,11 @@
       <c r="F131" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7336,8 +9036,11 @@
       <c r="F132" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7356,8 +9059,11 @@
       <c r="F133" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7376,8 +9082,11 @@
       <c r="F134" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7396,8 +9105,11 @@
       <c r="F135" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7416,8 +9128,11 @@
       <c r="F136" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7436,8 +9151,11 @@
       <c r="F137" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7456,8 +9174,11 @@
       <c r="F138" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7476,8 +9197,11 @@
       <c r="F139" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7496,8 +9220,11 @@
       <c r="F140" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7516,8 +9243,11 @@
       <c r="F141" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7536,8 +9266,11 @@
       <c r="F142" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7556,8 +9289,11 @@
       <c r="F143" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7576,8 +9312,11 @@
       <c r="F144" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7596,8 +9335,11 @@
       <c r="F145" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7616,8 +9358,11 @@
       <c r="F146" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>146</v>
       </c>
@@ -7636,8 +9381,11 @@
       <c r="F147" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7656,8 +9404,11 @@
       <c r="F148" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7676,8 +9427,11 @@
       <c r="F149" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7696,8 +9450,11 @@
       <c r="F150" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7716,8 +9473,11 @@
       <c r="F151" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7736,8 +9496,11 @@
       <c r="F152" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7756,8 +9519,11 @@
       <c r="F153" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7776,8 +9542,11 @@
       <c r="F154" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7796,8 +9565,11 @@
       <c r="F155" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7816,8 +9588,11 @@
       <c r="F156" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7836,8 +9611,11 @@
       <c r="F157" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7856,8 +9634,11 @@
       <c r="F158" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7876,8 +9657,11 @@
       <c r="F159" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7896,8 +9680,11 @@
       <c r="F160" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7916,8 +9703,11 @@
       <c r="F161" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7936,8 +9726,11 @@
       <c r="F162" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7956,8 +9749,11 @@
       <c r="F163" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7976,8 +9772,11 @@
       <c r="F164" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7996,8 +9795,11 @@
       <c r="F165" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8016,8 +9818,11 @@
       <c r="F166" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8036,8 +9841,11 @@
       <c r="F167" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8056,8 +9864,11 @@
       <c r="F168" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8076,8 +9887,11 @@
       <c r="F169" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8096,8 +9910,11 @@
       <c r="F170" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8116,8 +9933,11 @@
       <c r="F171" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8136,8 +9956,11 @@
       <c r="F172" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8156,8 +9979,11 @@
       <c r="F173" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8176,8 +10002,11 @@
       <c r="F174" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8196,8 +10025,11 @@
       <c r="F175" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8216,8 +10048,11 @@
       <c r="F176" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8236,8 +10071,11 @@
       <c r="F177" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8256,8 +10094,11 @@
       <c r="F178" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8276,8 +10117,11 @@
       <c r="F179" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8296,8 +10140,11 @@
       <c r="F180" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8316,8 +10163,11 @@
       <c r="F181" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8336,8 +10186,11 @@
       <c r="F182" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8356,8 +10209,11 @@
       <c r="F183" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8376,8 +10232,11 @@
       <c r="F184" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8396,8 +10255,11 @@
       <c r="F185" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8416,8 +10278,11 @@
       <c r="F186" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8436,8 +10301,11 @@
       <c r="F187" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8456,8 +10324,11 @@
       <c r="F188" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8476,8 +10347,11 @@
       <c r="F189" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8496,8 +10370,11 @@
       <c r="F190" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8516,8 +10393,11 @@
       <c r="F191" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8536,8 +10416,11 @@
       <c r="F192" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8556,8 +10439,11 @@
       <c r="F193" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8576,8 +10462,11 @@
       <c r="F194" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8596,8 +10485,11 @@
       <c r="F195" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8616,8 +10508,11 @@
       <c r="F196" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8636,8 +10531,11 @@
       <c r="F197" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8656,8 +10554,11 @@
       <c r="F198" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8676,8 +10577,11 @@
       <c r="F199" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8696,8 +10600,11 @@
       <c r="F200" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8716,8 +10623,11 @@
       <c r="F201" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8736,8 +10646,11 @@
       <c r="F202" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8756,8 +10669,11 @@
       <c r="F203" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8776,8 +10692,11 @@
       <c r="F204" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8796,8 +10715,11 @@
       <c r="F205" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8816,8 +10738,11 @@
       <c r="F206" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8836,8 +10761,11 @@
       <c r="F207" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8856,8 +10784,11 @@
       <c r="F208" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8876,8 +10807,11 @@
       <c r="F209" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8896,8 +10830,11 @@
       <c r="F210" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8916,8 +10853,11 @@
       <c r="F211" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8936,8 +10876,11 @@
       <c r="F212" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8956,8 +10899,11 @@
       <c r="F213" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8976,8 +10922,11 @@
       <c r="F214" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8996,8 +10945,11 @@
       <c r="F215" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9016,8 +10968,11 @@
       <c r="F216" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9036,8 +10991,11 @@
       <c r="F217" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9056,8 +11014,11 @@
       <c r="F218" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9076,8 +11037,11 @@
       <c r="F219" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9096,8 +11060,11 @@
       <c r="F220" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9116,8 +11083,11 @@
       <c r="F221" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9136,8 +11106,11 @@
       <c r="F222" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9156,8 +11129,11 @@
       <c r="F223" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9176,8 +11152,11 @@
       <c r="F224" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9196,8 +11175,11 @@
       <c r="F225" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9216,8 +11198,11 @@
       <c r="F226" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9236,8 +11221,11 @@
       <c r="F227" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9256,8 +11244,11 @@
       <c r="F228" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9276,8 +11267,11 @@
       <c r="F229" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9296,8 +11290,11 @@
       <c r="F230" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9316,8 +11313,11 @@
       <c r="F231" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9336,8 +11336,11 @@
       <c r="F232" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9356,8 +11359,11 @@
       <c r="F233" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9376,8 +11382,11 @@
       <c r="F234" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9396,8 +11405,11 @@
       <c r="F235" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9416,8 +11428,11 @@
       <c r="F236" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9436,8 +11451,11 @@
       <c r="F237" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9456,8 +11474,11 @@
       <c r="F238" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9476,8 +11497,11 @@
       <c r="F239" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>239</v>
       </c>
@@ -9496,8 +11520,11 @@
       <c r="F240" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>240</v>
       </c>
@@ -9516,8 +11543,11 @@
       <c r="F241" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>241</v>
       </c>
@@ -9536,8 +11566,11 @@
       <c r="F242" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>242</v>
       </c>
@@ -9556,8 +11589,11 @@
       <c r="F243" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>243</v>
       </c>
@@ -9576,8 +11612,11 @@
       <c r="F244" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>244</v>
       </c>
@@ -9596,8 +11635,11 @@
       <c r="F245" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>245</v>
       </c>
@@ -9616,8 +11658,11 @@
       <c r="F246" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>246</v>
       </c>
@@ -9636,8 +11681,11 @@
       <c r="F247" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>247</v>
       </c>
@@ -9656,8 +11704,11 @@
       <c r="F248" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>248</v>
       </c>
@@ -9676,8 +11727,11 @@
       <c r="F249" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>249</v>
       </c>
@@ -9696,8 +11750,11 @@
       <c r="F250" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>250</v>
       </c>
@@ -9716,8 +11773,11 @@
       <c r="F251" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>251</v>
       </c>
@@ -9736,8 +11796,11 @@
       <c r="F252" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>252</v>
       </c>
@@ -9756,8 +11819,11 @@
       <c r="F253" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>253</v>
       </c>
@@ -9776,8 +11842,11 @@
       <c r="F254" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>254</v>
       </c>
@@ -9796,8 +11865,11 @@
       <c r="F255" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>255</v>
       </c>
@@ -9816,8 +11888,11 @@
       <c r="F256" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>256</v>
       </c>
@@ -9836,8 +11911,11 @@
       <c r="F257" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>257</v>
       </c>
@@ -9856,8 +11934,11 @@
       <c r="F258" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>258</v>
       </c>
@@ -9876,8 +11957,11 @@
       <c r="F259" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>259</v>
       </c>
@@ -9896,8 +11980,11 @@
       <c r="F260" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>260</v>
       </c>
@@ -9916,8 +12003,11 @@
       <c r="F261" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>261</v>
       </c>
@@ -9936,8 +12026,11 @@
       <c r="F262" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>262</v>
       </c>
@@ -9956,8 +12049,11 @@
       <c r="F263" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>263</v>
       </c>
@@ -9976,8 +12072,11 @@
       <c r="F264" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>264</v>
       </c>
@@ -9996,8 +12095,11 @@
       <c r="F265" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10016,8 +12118,11 @@
       <c r="F266" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10036,8 +12141,11 @@
       <c r="F267" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10056,8 +12164,11 @@
       <c r="F268" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>268</v>
       </c>
@@ -10076,8 +12187,11 @@
       <c r="F269" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>269</v>
       </c>
@@ -10096,8 +12210,11 @@
       <c r="F270" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>270</v>
       </c>
@@ -10116,8 +12233,11 @@
       <c r="F271" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>271</v>
       </c>
@@ -10136,8 +12256,11 @@
       <c r="F272" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>272</v>
       </c>
@@ -10156,8 +12279,11 @@
       <c r="F273" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>273</v>
       </c>
@@ -10176,8 +12302,11 @@
       <c r="F274" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>274</v>
       </c>
@@ -10196,8 +12325,11 @@
       <c r="F275" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>275</v>
       </c>
@@ -10216,8 +12348,11 @@
       <c r="F276" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>276</v>
       </c>
@@ -10236,8 +12371,11 @@
       <c r="F277" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>277</v>
       </c>
@@ -10256,8 +12394,11 @@
       <c r="F278" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>278</v>
       </c>
@@ -10276,8 +12417,11 @@
       <c r="F279" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>279</v>
       </c>
@@ -10296,8 +12440,11 @@
       <c r="F280" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>280</v>
       </c>
@@ -10316,8 +12463,11 @@
       <c r="F281" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>281</v>
       </c>
@@ -10336,8 +12486,11 @@
       <c r="F282" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>282</v>
       </c>
@@ -10356,8 +12509,11 @@
       <c r="F283" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>283</v>
       </c>
@@ -10376,8 +12532,11 @@
       <c r="F284" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>284</v>
       </c>
@@ -10396,8 +12555,11 @@
       <c r="F285" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="G285" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>285</v>
       </c>
@@ -10416,8 +12578,11 @@
       <c r="F286" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>286</v>
       </c>
@@ -10436,8 +12601,11 @@
       <c r="F287" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>287</v>
       </c>
@@ -10456,8 +12624,11 @@
       <c r="F288" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>288</v>
       </c>
@@ -10476,8 +12647,11 @@
       <c r="F289" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>289</v>
       </c>
@@ -10496,8 +12670,11 @@
       <c r="F290" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>290</v>
       </c>
@@ -10516,8 +12693,11 @@
       <c r="F291" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>291</v>
       </c>
@@ -10536,8 +12716,11 @@
       <c r="F292" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>292</v>
       </c>
@@ -10556,8 +12739,11 @@
       <c r="F293" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>293</v>
       </c>
@@ -10576,8 +12762,11 @@
       <c r="F294" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>294</v>
       </c>
@@ -10596,8 +12785,11 @@
       <c r="F295" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>295</v>
       </c>
@@ -10616,8 +12808,11 @@
       <c r="F296" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>296</v>
       </c>
@@ -10636,8 +12831,11 @@
       <c r="F297" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>297</v>
       </c>
@@ -10656,8 +12854,11 @@
       <c r="F298" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>298</v>
       </c>
@@ -10676,8 +12877,11 @@
       <c r="F299" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>299</v>
       </c>
@@ -10696,8 +12900,11 @@
       <c r="F300" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>300</v>
       </c>
@@ -10716,8 +12923,11 @@
       <c r="F301" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>301</v>
       </c>
@@ -10736,8 +12946,11 @@
       <c r="F302" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>302</v>
       </c>
@@ -10756,8 +12969,11 @@
       <c r="F303" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>303</v>
       </c>
@@ -10776,8 +12992,11 @@
       <c r="F304" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>304</v>
       </c>
@@ -10796,8 +13015,11 @@
       <c r="F305" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>305</v>
       </c>
@@ -10816,8 +13038,11 @@
       <c r="F306" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="G306" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>306</v>
       </c>
@@ -10836,8 +13061,11 @@
       <c r="F307" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>307</v>
       </c>
@@ -10856,8 +13084,11 @@
       <c r="F308" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>308</v>
       </c>
@@ -10876,8 +13107,11 @@
       <c r="F309" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="G309" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>309</v>
       </c>
@@ -10896,8 +13130,11 @@
       <c r="F310" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10916,8 +13153,11 @@
       <c r="F311" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>311</v>
       </c>
@@ -10936,8 +13176,11 @@
       <c r="F312" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>312</v>
       </c>
@@ -10956,8 +13199,11 @@
       <c r="F313" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>313</v>
       </c>
@@ -10976,8 +13222,11 @@
       <c r="F314" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10996,8 +13245,11 @@
       <c r="F315" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>315</v>
       </c>
@@ -11016,8 +13268,11 @@
       <c r="F316" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="G316" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>316</v>
       </c>
@@ -11036,8 +13291,11 @@
       <c r="F317" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>317</v>
       </c>
@@ -11056,8 +13314,11 @@
       <c r="F318" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="G318" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>318</v>
       </c>
@@ -11076,8 +13337,11 @@
       <c r="F319" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>319</v>
       </c>
@@ -11096,8 +13360,11 @@
       <c r="F320" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="G320" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>320</v>
       </c>
@@ -11116,8 +13383,11 @@
       <c r="F321" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="G321" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>321</v>
       </c>
@@ -11136,8 +13406,11 @@
       <c r="F322" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>322</v>
       </c>
@@ -11156,8 +13429,11 @@
       <c r="F323" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>323</v>
       </c>
@@ -11176,8 +13452,11 @@
       <c r="F324" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="G324" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>324</v>
       </c>
@@ -11196,8 +13475,11 @@
       <c r="F325" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>325</v>
       </c>
@@ -11216,8 +13498,11 @@
       <c r="F326" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="G326" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>326</v>
       </c>
@@ -11236,8 +13521,11 @@
       <c r="F327" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="G327" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <v>327</v>
       </c>
@@ -11256,8 +13544,11 @@
       <c r="F328" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="G328" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <v>328</v>
       </c>
@@ -11276,8 +13567,11 @@
       <c r="F329" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="G329" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <v>329</v>
       </c>
@@ -11296,8 +13590,11 @@
       <c r="F330" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="G330" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331">
         <v>330</v>
       </c>
@@ -11316,8 +13613,11 @@
       <c r="F331" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="G331" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332">
         <v>331</v>
       </c>
@@ -11336,8 +13636,11 @@
       <c r="F332" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="G332" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <v>332</v>
       </c>
@@ -11356,8 +13659,11 @@
       <c r="F333" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="G333" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334">
         <v>333</v>
       </c>
@@ -11376,8 +13682,11 @@
       <c r="F334" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="G334" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <v>334</v>
       </c>
@@ -11396,8 +13705,11 @@
       <c r="F335" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="G335" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <v>335</v>
       </c>
@@ -11416,8 +13728,11 @@
       <c r="F336" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="G336" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337">
         <v>336</v>
       </c>
@@ -11436,8 +13751,11 @@
       <c r="F337" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="G337" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338">
         <v>337</v>
       </c>
@@ -11456,8 +13774,11 @@
       <c r="F338" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="G338" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339">
         <v>338</v>
       </c>
@@ -11476,8 +13797,11 @@
       <c r="F339" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="G339" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <v>339</v>
       </c>
@@ -11496,8 +13820,11 @@
       <c r="F340" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="G340" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <v>340</v>
       </c>
@@ -11516,8 +13843,11 @@
       <c r="F341" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="G341" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <v>341</v>
       </c>
@@ -11536,8 +13866,11 @@
       <c r="F342" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="G342" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <v>342</v>
       </c>
@@ -11556,8 +13889,11 @@
       <c r="F343" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="G343" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344">
         <v>343</v>
       </c>
@@ -11576,8 +13912,11 @@
       <c r="F344" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="G344" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345">
         <v>344</v>
       </c>
@@ -11596,8 +13935,11 @@
       <c r="F345" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="G345" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <v>345</v>
       </c>
@@ -11616,8 +13958,11 @@
       <c r="F346" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="G346" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <v>346</v>
       </c>
@@ -11636,8 +13981,11 @@
       <c r="F347" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="G347" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348">
         <v>347</v>
       </c>
@@ -11656,8 +14004,11 @@
       <c r="F348" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="G348" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <v>348</v>
       </c>
@@ -11676,8 +14027,11 @@
       <c r="F349" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="350" spans="1:6">
+      <c r="G349" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <v>349</v>
       </c>
@@ -11696,8 +14050,11 @@
       <c r="F350" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="351" spans="1:6">
+      <c r="G350" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351">
         <v>350</v>
       </c>
@@ -11716,8 +14073,11 @@
       <c r="F351" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="352" spans="1:6">
+      <c r="G351" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352">
         <v>351</v>
       </c>
@@ -11736,8 +14096,11 @@
       <c r="F352" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="353" spans="1:6">
+      <c r="G352" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353">
         <v>352</v>
       </c>
@@ -11756,8 +14119,11 @@
       <c r="F353" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="354" spans="1:6">
+      <c r="G353" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354">
         <v>353</v>
       </c>
@@ -11776,8 +14142,11 @@
       <c r="F354" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="G354" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355">
         <v>354</v>
       </c>
@@ -11796,8 +14165,11 @@
       <c r="F355" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="356" spans="1:6">
+      <c r="G355" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356">
         <v>355</v>
       </c>
@@ -11816,8 +14188,11 @@
       <c r="F356" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="G356" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357">
         <v>356</v>
       </c>
@@ -11836,8 +14211,11 @@
       <c r="F357" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="G357" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358">
         <v>357</v>
       </c>
@@ -11856,8 +14234,11 @@
       <c r="F358" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="359" spans="1:6">
+      <c r="G358" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359">
         <v>358</v>
       </c>
@@ -11876,8 +14257,11 @@
       <c r="F359" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
+      <c r="G359" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360">
         <v>359</v>
       </c>
@@ -11896,8 +14280,11 @@
       <c r="F360" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="G360" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361">
         <v>360</v>
       </c>
@@ -11916,8 +14303,11 @@
       <c r="F361" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="362" spans="1:6">
+      <c r="G361" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362">
         <v>361</v>
       </c>
@@ -11936,8 +14326,11 @@
       <c r="F362" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="G362" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363">
         <v>362</v>
       </c>
@@ -11956,8 +14349,11 @@
       <c r="F363" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="G363" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364">
         <v>363</v>
       </c>
@@ -11976,8 +14372,11 @@
       <c r="F364" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="365" spans="1:6">
+      <c r="G364" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365">
         <v>364</v>
       </c>
@@ -11996,8 +14395,11 @@
       <c r="F365" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="366" spans="1:6">
+      <c r="G365" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366">
         <v>365</v>
       </c>
@@ -12016,8 +14418,11 @@
       <c r="F366" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="367" spans="1:6">
+      <c r="G366" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367">
         <v>366</v>
       </c>
@@ -12036,8 +14441,11 @@
       <c r="F367" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="G367" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368">
         <v>367</v>
       </c>
@@ -12056,8 +14464,11 @@
       <c r="F368" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="G368" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369">
         <v>368</v>
       </c>
@@ -12076,8 +14487,11 @@
       <c r="F369" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="370" spans="1:6">
+      <c r="G369" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370">
         <v>369</v>
       </c>
@@ -12096,8 +14510,11 @@
       <c r="F370" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="371" spans="1:6">
+      <c r="G370" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371">
         <v>370</v>
       </c>
@@ -12116,8 +14533,11 @@
       <c r="F371" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="372" spans="1:6">
+      <c r="G371" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372">
         <v>371</v>
       </c>
@@ -12136,8 +14556,11 @@
       <c r="F372" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="373" spans="1:6">
+      <c r="G372" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373">
         <v>372</v>
       </c>
@@ -12156,8 +14579,11 @@
       <c r="F373" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="374" spans="1:6">
+      <c r="G373" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374">
         <v>373</v>
       </c>
@@ -12176,8 +14602,11 @@
       <c r="F374" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="375" spans="1:6">
+      <c r="G374" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375">
         <v>374</v>
       </c>
@@ -12196,8 +14625,11 @@
       <c r="F375" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="376" spans="1:6">
+      <c r="G375" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376">
         <v>375</v>
       </c>
@@ -12216,8 +14648,11 @@
       <c r="F376" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="377" spans="1:6">
+      <c r="G376" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377">
         <v>376</v>
       </c>
@@ -12236,8 +14671,11 @@
       <c r="F377" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="378" spans="1:6">
+      <c r="G377" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378">
         <v>377</v>
       </c>
@@ -12256,8 +14694,11 @@
       <c r="F378" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="G378" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379">
         <v>378</v>
       </c>
@@ -12276,8 +14717,11 @@
       <c r="F379" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="G379" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380">
         <v>379</v>
       </c>
@@ -12296,8 +14740,11 @@
       <c r="F380" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="381" spans="1:6">
+      <c r="G380" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381">
         <v>380</v>
       </c>
@@ -12316,8 +14763,11 @@
       <c r="F381" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="382" spans="1:6">
+      <c r="G381" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382">
         <v>381</v>
       </c>
@@ -12336,8 +14786,11 @@
       <c r="F382" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="383" spans="1:6">
+      <c r="G382" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383">
         <v>382</v>
       </c>
@@ -12356,8 +14809,11 @@
       <c r="F383" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="G383" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384">
         <v>383</v>
       </c>
@@ -12376,8 +14832,11 @@
       <c r="F384" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="G384" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385">
         <v>384</v>
       </c>
@@ -12396,8 +14855,11 @@
       <c r="F385" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="G385" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386">
         <v>385</v>
       </c>
@@ -12416,8 +14878,11 @@
       <c r="F386" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="G386" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387">
         <v>386</v>
       </c>
@@ -12436,8 +14901,11 @@
       <c r="F387" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="G387" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388">
         <v>387</v>
       </c>
@@ -12456,8 +14924,11 @@
       <c r="F388" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="G388" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389">
         <v>388</v>
       </c>
@@ -12476,8 +14947,11 @@
       <c r="F389" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="G389" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390">
         <v>389</v>
       </c>
@@ -12496,8 +14970,11 @@
       <c r="F390" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="G390" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391">
         <v>390</v>
       </c>
@@ -12516,8 +14993,11 @@
       <c r="F391" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="G391" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392">
         <v>391</v>
       </c>
@@ -12536,8 +15016,11 @@
       <c r="F392" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="393" spans="1:6">
+      <c r="G392" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393">
         <v>392</v>
       </c>
@@ -12556,8 +15039,11 @@
       <c r="F393" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="G393" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394">
         <v>393</v>
       </c>
@@ -12576,8 +15062,11 @@
       <c r="F394" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="395" spans="1:6">
+      <c r="G394" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395">
         <v>394</v>
       </c>
@@ -12596,8 +15085,11 @@
       <c r="F395" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="G395" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396">
         <v>395</v>
       </c>
@@ -12616,8 +15108,11 @@
       <c r="F396" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="397" spans="1:6">
+      <c r="G396" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397">
         <v>396</v>
       </c>
@@ -12636,8 +15131,11 @@
       <c r="F397" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="398" spans="1:6">
+      <c r="G397" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398">
         <v>397</v>
       </c>
@@ -12656,8 +15154,11 @@
       <c r="F398" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="G398" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399">
         <v>398</v>
       </c>
@@ -12676,8 +15177,11 @@
       <c r="F399" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="G399" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400">
         <v>399</v>
       </c>
@@ -12696,8 +15200,11 @@
       <c r="F400" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="G400" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401">
         <v>400</v>
       </c>
@@ -12716,8 +15223,11 @@
       <c r="F401" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="402" spans="1:6">
+      <c r="G401" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402">
         <v>401</v>
       </c>
@@ -12736,8 +15246,11 @@
       <c r="F402" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="403" spans="1:6">
+      <c r="G402" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403">
         <v>402</v>
       </c>
@@ -12756,8 +15269,11 @@
       <c r="F403" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="404" spans="1:6">
+      <c r="G403" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404">
         <v>403</v>
       </c>
@@ -12776,8 +15292,11 @@
       <c r="F404" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="405" spans="1:6">
+      <c r="G404" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405">
         <v>404</v>
       </c>
@@ -12796,8 +15315,11 @@
       <c r="F405" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="406" spans="1:6">
+      <c r="G405" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406">
         <v>405</v>
       </c>
@@ -12816,8 +15338,11 @@
       <c r="F406" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="G406" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407">
         <v>406</v>
       </c>
@@ -12836,8 +15361,11 @@
       <c r="F407" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="408" spans="1:6">
+      <c r="G407" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408">
         <v>407</v>
       </c>
@@ -12856,8 +15384,11 @@
       <c r="F408" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="409" spans="1:6">
+      <c r="G408" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409">
         <v>408</v>
       </c>
@@ -12876,8 +15407,11 @@
       <c r="F409" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="410" spans="1:6">
+      <c r="G409" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410">
         <v>409</v>
       </c>
@@ -12896,8 +15430,11 @@
       <c r="F410" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="411" spans="1:6">
+      <c r="G410" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411">
         <v>410</v>
       </c>
@@ -12916,8 +15453,11 @@
       <c r="F411" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="412" spans="1:6">
+      <c r="G411" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412">
         <v>411</v>
       </c>
@@ -12936,8 +15476,11 @@
       <c r="F412" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="413" spans="1:6">
+      <c r="G412" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413">
         <v>412</v>
       </c>
@@ -12956,8 +15499,11 @@
       <c r="F413" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="414" spans="1:6">
+      <c r="G413" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414">
         <v>413</v>
       </c>
@@ -12976,8 +15522,11 @@
       <c r="F414" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="415" spans="1:6">
+      <c r="G414" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415">
         <v>414</v>
       </c>
@@ -12996,8 +15545,11 @@
       <c r="F415" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="416" spans="1:6">
+      <c r="G415" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416">
         <v>415</v>
       </c>
@@ -13016,8 +15568,11 @@
       <c r="F416" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="417" spans="1:6">
+      <c r="G416" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417">
         <v>416</v>
       </c>
@@ -13036,8 +15591,11 @@
       <c r="F417" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="418" spans="1:6">
+      <c r="G417" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418">
         <v>417</v>
       </c>
@@ -13056,8 +15614,11 @@
       <c r="F418" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="419" spans="1:6">
+      <c r="G418" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419">
         <v>418</v>
       </c>
@@ -13076,8 +15637,11 @@
       <c r="F419" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="G419" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420">
         <v>419</v>
       </c>
@@ -13096,8 +15660,11 @@
       <c r="F420" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="421" spans="1:6">
+      <c r="G420" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421">
         <v>420</v>
       </c>
@@ -13116,8 +15683,11 @@
       <c r="F421" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="422" spans="1:6">
+      <c r="G421" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422">
         <v>421</v>
       </c>
@@ -13136,8 +15706,11 @@
       <c r="F422" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="423" spans="1:6">
+      <c r="G422" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423">
         <v>422</v>
       </c>
@@ -13156,8 +15729,11 @@
       <c r="F423" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="424" spans="1:6">
+      <c r="G423" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424">
         <v>423</v>
       </c>
@@ -13176,8 +15752,11 @@
       <c r="F424" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="G424" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425">
         <v>424</v>
       </c>
@@ -13196,8 +15775,11 @@
       <c r="F425" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="426" spans="1:6">
+      <c r="G425" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426">
         <v>425</v>
       </c>
@@ -13216,8 +15798,11 @@
       <c r="F426" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="427" spans="1:6">
+      <c r="G426" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427">
         <v>426</v>
       </c>
@@ -13236,8 +15821,11 @@
       <c r="F427" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="428" spans="1:6">
+      <c r="G427" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428">
         <v>427</v>
       </c>
@@ -13256,8 +15844,11 @@
       <c r="F428" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="G428" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429">
         <v>428</v>
       </c>
@@ -13276,8 +15867,11 @@
       <c r="F429" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="430" spans="1:6">
+      <c r="G429" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430">
         <v>429</v>
       </c>
@@ -13296,8 +15890,12 @@
       <c r="F430" t="s">
         <v>540</v>
       </c>
+      <c r="G430" t="s">
+        <v>970</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
